--- a/05_Entregable 3/previo/Dominio de Valores/DdV_03_MAATE_BD_2021_VS (1).xlsx
+++ b/05_Entregable 3/previo/Dominio de Valores/DdV_03_MAATE_BD_2021_VS (1).xlsx
@@ -1,286 +1,293 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\05_Entregable 3\previo\Dominio de Valores\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Causal COIP / CODA_Retencion 2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tipo_Retencion 2021" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Clase_Retencion 2021" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Reino_Retencion 2021" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Clase2_Retencion 2021" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Nombre científico_Retencion 20" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Tipo3_Retencion 2021" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Etapa de vida_Retencion 2021" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Estado Físico_Retencion 2021" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Elemento constitutivo_Retencio" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Unidad_Retencion 2021" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Tipo de proceso_Retencion 2021" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Razón social del Destino_Reten" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Recuperado_Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tipo_Retencion 2021" sheetId="2" r:id="rId2"/>
+    <sheet name="Clase_Retencion 2021" sheetId="3" r:id="rId3"/>
+    <sheet name="Reino_Retencion 2021" sheetId="4" r:id="rId4"/>
+    <sheet name="Clase2_Retencion 2021" sheetId="5" r:id="rId5"/>
+    <sheet name="Nombre científico_Retencion 20" sheetId="6" r:id="rId6"/>
+    <sheet name="Tipo3_Retencion 2021" sheetId="7" r:id="rId7"/>
+    <sheet name="Etapa de vida_Retencion 2021" sheetId="8" r:id="rId8"/>
+    <sheet name="Estado Físico_Retencion 2021" sheetId="9" r:id="rId9"/>
+    <sheet name="Elemento constitutivo_Retencio" sheetId="10" r:id="rId10"/>
+    <sheet name="Unidad_Retencion 2021" sheetId="11" r:id="rId11"/>
+    <sheet name="Tipo de proceso_Retencion 2021" sheetId="12" r:id="rId12"/>
+    <sheet name="Razón social del Destino_Reten" sheetId="13" r:id="rId13"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">Causal COIP / CODA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nro. de apariciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comercialización ilegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracción ilegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movilización ilegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenencia ilegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transporte ilegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Público</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camioneta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluvial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clase2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aves - 46160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecta - 49915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mammalia - 45471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reptilia - 44835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre científico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazona amazonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazona amazónica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazona autumnalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazona farinosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ara ararauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ara macao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bothrops asper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromeliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camponotus sp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camponotus sp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camponotus sp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cephalotes Basalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuniculus paca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dasypracta fuliginosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrocygna autumnalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epicrates cenchira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguana iguana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larus pipixcan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masama americana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nausa nausa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neoponera sp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neoponera sp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odontomachus bauri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortalis erythroptera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraponera clavata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pheidole xanthogaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psittacus erithacus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementos constitutivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especimen Muerto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especimen Vivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espécimen vivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etapa de vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adulto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juvenil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polluelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado Físico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bueno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemento constitutivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cráneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especimen disecado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de proceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razón social del Destino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eco Zoológico San Martín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Veterinario Planeta Vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoorefugio Tarqui</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+  <si>
+    <t>Causal COIP / CODA</t>
+  </si>
+  <si>
+    <t>Nro. de apariciones</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Comercialización ilegal</t>
+  </si>
+  <si>
+    <t>Extracción ilegal</t>
+  </si>
+  <si>
+    <t>Movilización ilegal</t>
+  </si>
+  <si>
+    <t>Tenencia ilegal</t>
+  </si>
+  <si>
+    <t>Transporte ilegal</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Vehículo</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Camioneta</t>
+  </si>
+  <si>
+    <t>Fluvial</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
+    <t>Reino</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Plantae</t>
+  </si>
+  <si>
+    <t>Clase2</t>
+  </si>
+  <si>
+    <t>Aves - 46160</t>
+  </si>
+  <si>
+    <t>Insecta - 49915</t>
+  </si>
+  <si>
+    <t>Liliopsida</t>
+  </si>
+  <si>
+    <t>Mammalia - 45471</t>
+  </si>
+  <si>
+    <t>Reptilia - 44835</t>
+  </si>
+  <si>
+    <t>Nombre científico</t>
+  </si>
+  <si>
+    <t>Amazona amazonica</t>
+  </si>
+  <si>
+    <t>Amazona amazónica</t>
+  </si>
+  <si>
+    <t>Amazona autumnalis</t>
+  </si>
+  <si>
+    <t>Amazona farinosa</t>
+  </si>
+  <si>
+    <t>Ara ararauna</t>
+  </si>
+  <si>
+    <t>Ara macao</t>
+  </si>
+  <si>
+    <t>Bothrops asper</t>
+  </si>
+  <si>
+    <t>Bromeliaceae</t>
+  </si>
+  <si>
+    <t>Camponotus sp1</t>
+  </si>
+  <si>
+    <t>Camponotus sp2</t>
+  </si>
+  <si>
+    <t>Camponotus sp3</t>
+  </si>
+  <si>
+    <t>Cephalotes Basalis</t>
+  </si>
+  <si>
+    <t>Cuniculus paca</t>
+  </si>
+  <si>
+    <t>Dasypracta fuliginosa</t>
+  </si>
+  <si>
+    <t>Dendrocygna autumnalis</t>
+  </si>
+  <si>
+    <t>Epicrates cenchira</t>
+  </si>
+  <si>
+    <t>Iguana iguana</t>
+  </si>
+  <si>
+    <t>Larus pipixcan</t>
+  </si>
+  <si>
+    <t>Masama americana</t>
+  </si>
+  <si>
+    <t>Nausa nausa</t>
+  </si>
+  <si>
+    <t>Neoponera sp1</t>
+  </si>
+  <si>
+    <t>Neoponera sp2</t>
+  </si>
+  <si>
+    <t>Odontomachus bauri</t>
+  </si>
+  <si>
+    <t>Ortalis erythroptera</t>
+  </si>
+  <si>
+    <t>Paraponera clavata</t>
+  </si>
+  <si>
+    <t>Pheidole xanthogaster</t>
+  </si>
+  <si>
+    <t>Psittacus erithacus</t>
+  </si>
+  <si>
+    <t>Tipo3</t>
+  </si>
+  <si>
+    <t>Elementos constitutivos</t>
+  </si>
+  <si>
+    <t>Especimen Muerto</t>
+  </si>
+  <si>
+    <t>Especimen Vivo</t>
+  </si>
+  <si>
+    <t>Espécimen vivo</t>
+  </si>
+  <si>
+    <t>Etapa de vida</t>
+  </si>
+  <si>
+    <t>Adulto</t>
+  </si>
+  <si>
+    <t>Juvenil</t>
+  </si>
+  <si>
+    <t>Polluelo</t>
+  </si>
+  <si>
+    <t>Estado Físico</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Elemento constitutivo</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Cráneo</t>
+  </si>
+  <si>
+    <t>Especimen disecado</t>
+  </si>
+  <si>
+    <t>Piel</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Tipo de proceso</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>Penal</t>
+  </si>
+  <si>
+    <t>Razón social del Destino</t>
+  </si>
+  <si>
+    <t>Eco Zoológico San Martín</t>
+  </si>
+  <si>
+    <t>Hospital Veterinario Planeta Vida</t>
+  </si>
+  <si>
+    <t>Zoorefugio Tarqui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,6 +323,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -597,14 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,66 +631,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6"/>
+      <c r="B6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -685,64 +696,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>29</v>
       </c>
-      <c r="C6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -753,55 +758,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>29</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -812,55 +812,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>27</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -871,55 +866,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>29</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -930,55 +920,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -989,55 +974,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1048,39 +1028,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1091,66 +1069,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1161,271 +1134,242 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5"/>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6"/>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7"/>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8"/>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9"/>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10"/>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11"/>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12"/>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13"/>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14"/>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15"/>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16"/>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17"/>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18"/>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19"/>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20"/>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21"/>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22"/>
-    </row>
-    <row r="23">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23"/>
-    </row>
-    <row r="24">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24"/>
-    </row>
-    <row r="25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25"/>
-    </row>
-    <row r="26">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26"/>
-    </row>
-    <row r="27">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27"/>
-    </row>
-    <row r="28">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28"/>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29"/>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1436,57 +1380,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>26</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1497,55 +1437,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1556,42 +1491,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>23</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>